--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandunj\eclipse-workspace\CMSautomation1\src\test\resources\Testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandunj\eclipse-workspace\GitHub CMSautomation1\2024_11_16_clone\CMSautomation1\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0728456F-3AA6-477D-93A9-87C4E1AA142A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52576292-6B1A-4C16-BE07-7D87622903E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>username</t>
   </si>
@@ -77,7 +77,13 @@
     <t>80</t>
   </si>
   <si>
-    <t>October@#1447</t>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Login - Oracle Access Management 12c</t>
+  </si>
+  <si>
+    <t>December@#1447</t>
   </si>
 </sst>
 </file>
@@ -417,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -429,20 +435,26 @@
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/target/test-classes/Testdata/TestData.xlsx
+++ b/target/test-classes/Testdata/TestData.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sandunj\eclipse-workspace\GitHub CMSautomation1\2024_11_16_clone\CMSautomation1\src\test\resources\Testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52576292-6B1A-4C16-BE07-7D87622903E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C44487-39D2-49B0-9079-031E584796F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="aimslogging" sheetId="1" r:id="rId1"/>
     <sheet name="NewCampain_GenaralIinfor" sheetId="2" r:id="rId2"/>
     <sheet name="NewCampain_AwarenessInfo" sheetId="3" r:id="rId3"/>
+    <sheet name="campaign management page" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>username</t>
   </si>
@@ -77,13 +78,40 @@
     <t>80</t>
   </si>
   <si>
-    <t>Title</t>
-  </si>
-  <si>
     <t>Login - Oracle Access Management 12c</t>
   </si>
   <si>
     <t>December@#1447</t>
+  </si>
+  <si>
+    <t>AIMS</t>
+  </si>
+  <si>
+    <t>AIMS title befor logging</t>
+  </si>
+  <si>
+    <t>AIMS title after logging</t>
+  </si>
+  <si>
+    <t>tilename</t>
+  </si>
+  <si>
+    <t>Campaign management system</t>
+  </si>
+  <si>
+    <t>Campaign Management</t>
+  </si>
+  <si>
+    <t>page heading</t>
+  </si>
+  <si>
+    <t>takeupbase</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>Campaign Title name</t>
   </si>
 </sst>
 </file>
@@ -423,19 +451,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.42578125" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,18 +474,30 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" t="s">
-        <v>17</v>
+      <c r="E2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -468,10 +511,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8D36E87-8F0B-4141-B110-C515E971A14F}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -480,9 +523,10 @@
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -495,8 +539,14 @@
       <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -509,8 +559,14 @@
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -521,7 +577,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>13</v>
       </c>
@@ -529,7 +585,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>12</v>
       </c>
@@ -551,4 +607,30 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C12F5AC-0720-4FA2-8223-0AD5516852AB}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>